--- a/data/Church Park Botany 2016_ccr.xlsx
+++ b/data/Church Park Botany 2016_ccr.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam.Mahood\projects\church_park\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF97E39B-4B45-4CE9-9248-2BAE9E7B794F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98E093A-A0D6-4055-8BEA-F1AB62C5E5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-64755" yWindow="2925" windowWidth="34245" windowHeight="15435" tabRatio="447" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" tabRatio="447" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Church Park Botany 2016" sheetId="1" r:id="rId1"/>
-    <sheet name="SPSSCover_16" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="Noxious" sheetId="2" r:id="rId4"/>
-    <sheet name="Unknowns" sheetId="3" r:id="rId5"/>
-    <sheet name="botany2016" sheetId="6" r:id="rId6"/>
+    <sheet name="ground_cover_2016" sheetId="7" r:id="rId2"/>
+    <sheet name="SPSSCover_16" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Noxious" sheetId="2" r:id="rId5"/>
+    <sheet name="Unknowns" sheetId="3" r:id="rId6"/>
+    <sheet name="botany2016" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1267,6 +1268,64 @@
     <author>USDA Forest Service</author>
   </authors>
   <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{43000A0F-AD94-42C8-A700-A39B0C712737}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>USDA Forest Service:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Also char from fire</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{3C9D0177-6169-4680-BB38-BBAA49B53AEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USDA Forest Service:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2 tallies, 1 counted in check</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>USDA Forest Service</author>
+  </authors>
+  <commentList>
     <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
@@ -2482,7 +2541,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USDA Forest Service</author>
@@ -2516,7 +2575,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>USDA Forest Service</author>
@@ -3666,7 +3725,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="294">
   <si>
     <t>Date</t>
   </si>
@@ -5270,9 +5329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA6" sqref="AA6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,7 +5342,7 @@
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" customWidth="1"/>
     <col min="12" max="12" width="7.140625" customWidth="1"/>
@@ -17441,6 +17500,2183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C7B05B-BEE7-4E83-A565-62AE68921E49}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>49</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>62</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>90</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>83</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4">
+        <v>51</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4">
+        <v>70</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>40</v>
+      </c>
+      <c r="G8" s="4">
+        <v>54</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>49</v>
+      </c>
+      <c r="G9" s="4">
+        <v>43</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>66</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>70</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>82</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>8</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>94</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>95</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>88</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4">
+        <v>41</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>4</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>56</v>
+      </c>
+      <c r="G17" s="4">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <v>28</v>
+      </c>
+      <c r="G18" s="4">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>51</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4">
+        <v>38</v>
+      </c>
+      <c r="G19" s="4">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>45</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>63</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>18</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>92</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>4</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>81</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>11</v>
+      </c>
+      <c r="H23" s="4">
+        <v>79</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>41</v>
+      </c>
+      <c r="G24" s="4">
+        <v>28</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>13</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>14</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4">
+        <v>49</v>
+      </c>
+      <c r="G25" s="4">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>20</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4">
+        <v>18</v>
+      </c>
+      <c r="G26" s="4">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>54</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>68</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>74</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>8</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>13</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3">
+        <v>42590</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>6</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>7</v>
+      </c>
+      <c r="H29" s="4">
+        <v>70</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>17</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4</v>
+      </c>
+      <c r="H30" s="4">
+        <v>84</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>3</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4">
+        <v>9</v>
+      </c>
+      <c r="H31" s="4">
+        <v>76</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4">
+        <v>42</v>
+      </c>
+      <c r="G32" s="4">
+        <v>47</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>5</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43</v>
+      </c>
+      <c r="G33" s="4">
+        <v>37</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>5</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>32</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>62</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
+      <c r="G35" s="4">
+        <v>15</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>69</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>2</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>32</v>
+      </c>
+      <c r="H36" s="4">
+        <v>45</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>16</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="9">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4">
+        <v>10</v>
+      </c>
+      <c r="H37" s="4">
+        <v>58</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>25</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4</v>
+      </c>
+      <c r="G38" s="4">
+        <v>9</v>
+      </c>
+      <c r="H38" s="4">
+        <v>74</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="9">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4</v>
+      </c>
+      <c r="G39" s="4">
+        <v>29</v>
+      </c>
+      <c r="H39" s="4">
+        <v>56</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4">
+        <v>72</v>
+      </c>
+      <c r="G40" s="4">
+        <v>8</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>1</v>
+      </c>
+      <c r="N40" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3">
+        <v>42593</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4">
+        <v>16</v>
+      </c>
+      <c r="F41" s="4">
+        <v>54</v>
+      </c>
+      <c r="G41" s="4">
+        <v>12</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4">
+        <v>13</v>
+      </c>
+      <c r="G42" s="4">
+        <v>14</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>54</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4">
+        <v>19</v>
+      </c>
+      <c r="G43" s="4">
+        <v>14</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>56</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+      <c r="L43" s="4">
+        <v>2</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="9">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4">
+        <v>18</v>
+      </c>
+      <c r="H44" s="4">
+        <v>68</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>5</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="9">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>14</v>
+      </c>
+      <c r="H45" s="4">
+        <v>72</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>6</v>
+      </c>
+      <c r="G46" s="4">
+        <v>24</v>
+      </c>
+      <c r="H46" s="4">
+        <v>65</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>4</v>
+      </c>
+      <c r="G47" s="4">
+        <v>4</v>
+      </c>
+      <c r="H47" s="4">
+        <v>89</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>2</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>6</v>
+      </c>
+      <c r="F48" s="4">
+        <v>73</v>
+      </c>
+      <c r="G48" s="4">
+        <v>21</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3">
+        <v>42591</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>7</v>
+      </c>
+      <c r="F49" s="4">
+        <v>67</v>
+      </c>
+      <c r="G49" s="4">
+        <v>22</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>2</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BT62"/>
   <sheetViews>
@@ -29216,7 +31452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
@@ -30903,7 +33139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
@@ -31667,7 +33903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -32328,11 +34564,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6A33E2-71B9-4A75-BD9A-8840BAEA4926}">
   <dimension ref="A1:AZ62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
     </sheetView>
